--- a/Doku/Stammdaten_Datenbank.xlsx
+++ b/Doku/Stammdaten_Datenbank.xlsx
@@ -199,12 +199,6 @@
     <t>IT-Ausstatung</t>
   </si>
   <si>
-    <t>JA</t>
-  </si>
-  <si>
-    <t>NEIN</t>
-  </si>
-  <si>
     <t>cf101</t>
   </si>
   <si>
@@ -266,6 +260,12 @@
   </si>
   <si>
     <t>BABM3</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -706,7 +706,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -782,8 +782,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -808,7 +810,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -833,7 +834,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="77">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -871,6 +872,7 @@
     <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -908,6 +910,7 @@
     <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1239,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1255,12 +1258,12 @@
     <col min="10" max="10" width="5" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="46" customFormat="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:14" s="45" customFormat="1">
+      <c r="A1" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="46" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="45" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1275,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="22"/>
-      <c r="H3" s="33"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="23"/>
       <c r="L3" s="2" t="s">
         <v>32</v>
@@ -1286,26 +1289,26 @@
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="16"/>
-      <c r="F4" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="44" t="s">
+      <c r="H4" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="43" t="s">
         <v>58</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="16"/>
@@ -1318,14 +1321,14 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>74</v>
+      <c r="I5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="N5" s="16"/>
     </row>
@@ -1334,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="16"/>
       <c r="F6" s="4">
@@ -1343,11 +1346,11 @@
       <c r="G6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="30">
         <v>2</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="L6" s="21">
         <v>1</v>
@@ -1362,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="16"/>
       <c r="F7" s="4">
@@ -1371,11 +1374,11 @@
       <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="30">
         <v>3</v>
       </c>
-      <c r="I7" s="26" t="s">
-        <v>60</v>
+      <c r="I7" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L7" s="21">
         <v>1</v>
@@ -1390,7 +1393,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F8" s="4">
         <v>4</v>
@@ -1398,11 +1401,11 @@
       <c r="G8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="30">
         <v>4</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>60</v>
+      <c r="I8" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L8" s="21">
         <v>1</v>
@@ -1417,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F9" s="4">
         <v>5</v>
@@ -1425,11 +1428,11 @@
       <c r="G9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="30">
         <v>5</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>60</v>
+      <c r="I9" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L9" s="21">
         <v>1</v>
@@ -1440,11 +1443,11 @@
       <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:14" ht="18">
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>5</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10" s="4">
         <v>6</v>
@@ -1452,11 +1455,11 @@
       <c r="G10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="30">
         <v>6</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>60</v>
+      <c r="I10" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L10" s="21">
         <v>1</v>
@@ -1471,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F11" s="4">
         <v>7</v>
@@ -1479,11 +1482,11 @@
       <c r="G11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <v>3</v>
       </c>
-      <c r="I11" s="26" t="s">
-        <v>59</v>
+      <c r="I11" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="L11" s="21">
         <v>1</v>
@@ -1494,19 +1497,19 @@
       <c r="N11" s="16"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="F12" s="4">
         <v>8</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="30">
         <v>2</v>
       </c>
-      <c r="I12" s="26" t="s">
-        <v>59</v>
+      <c r="I12" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="L12" s="21">
         <v>2</v>
@@ -1525,11 +1528,11 @@
       <c r="G13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="30">
         <v>9</v>
       </c>
-      <c r="I13" s="26" t="s">
-        <v>60</v>
+      <c r="I13" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L13" s="21">
         <v>2</v>
@@ -1548,11 +1551,11 @@
       <c r="G14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="30">
         <v>9</v>
       </c>
-      <c r="I14" s="26" t="s">
-        <v>60</v>
+      <c r="I14" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L14" s="21">
         <v>2</v>
@@ -1569,11 +1572,11 @@
       <c r="G15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="30">
         <v>2</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>59</v>
+      <c r="I15" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="L15" s="21">
         <v>2</v>
@@ -1590,11 +1593,11 @@
       <c r="G16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="30">
         <v>3</v>
       </c>
-      <c r="I16" s="26" t="s">
-        <v>59</v>
+      <c r="I16" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="L16" s="21">
         <v>2</v>
@@ -1611,11 +1614,11 @@
       <c r="G17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="30">
         <v>2</v>
       </c>
-      <c r="I17" s="26" t="s">
-        <v>59</v>
+      <c r="I17" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="L17" s="21">
         <v>3</v>
@@ -1629,7 +1632,7 @@
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="16"/>
       <c r="F18" s="4">
         <v>14</v>
@@ -1637,11 +1640,11 @@
       <c r="G18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="30">
         <v>10</v>
       </c>
-      <c r="I18" s="26" t="s">
-        <v>59</v>
+      <c r="I18" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="L18" s="21">
         <v>3</v>
@@ -1652,8 +1655,8 @@
       <c r="N18" s="16"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="16"/>
       <c r="F19" s="4">
         <v>15</v>
@@ -1661,11 +1664,11 @@
       <c r="G19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="30">
         <v>9</v>
       </c>
-      <c r="I19" s="26" t="s">
-        <v>60</v>
+      <c r="I19" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L19" s="21">
         <v>3</v>
@@ -1676,10 +1679,10 @@
       <c r="N19" s="16"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="40" t="s">
+      <c r="B20" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="16"/>
@@ -1689,11 +1692,11 @@
       <c r="G20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="30">
         <v>11</v>
       </c>
-      <c r="I20" s="26" t="s">
-        <v>60</v>
+      <c r="I20" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L20" s="21">
         <v>3</v>
@@ -1717,11 +1720,11 @@
       <c r="G21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="30">
         <v>8</v>
       </c>
-      <c r="I21" s="26" t="s">
-        <v>60</v>
+      <c r="I21" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L21" s="21">
         <v>3</v>
@@ -1745,11 +1748,11 @@
       <c r="G22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="30">
         <v>12</v>
       </c>
-      <c r="I22" s="26" t="s">
-        <v>60</v>
+      <c r="I22" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L22" s="21">
         <v>3</v>
@@ -1773,11 +1776,11 @@
       <c r="G23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="30">
         <v>13</v>
       </c>
-      <c r="I23" s="26" t="s">
-        <v>60</v>
+      <c r="I23" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L23" s="21">
         <v>4</v>
@@ -1801,11 +1804,11 @@
       <c r="G24" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="30">
         <v>4</v>
       </c>
-      <c r="I24" s="26" t="s">
-        <v>60</v>
+      <c r="I24" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L24" s="21">
         <v>4</v>
@@ -1829,11 +1832,11 @@
       <c r="G25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="30">
         <v>1</v>
       </c>
-      <c r="I25" s="26" t="s">
-        <v>59</v>
+      <c r="I25" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="L25" s="21">
         <v>4</v>
@@ -1857,11 +1860,11 @@
       <c r="G26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="30">
         <v>8</v>
       </c>
-      <c r="I26" s="26" t="s">
-        <v>60</v>
+      <c r="I26" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L26" s="21">
         <v>4</v>
@@ -1885,11 +1888,11 @@
       <c r="G27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="30">
         <v>14</v>
       </c>
-      <c r="I27" s="26" t="s">
-        <v>60</v>
+      <c r="I27" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L27" s="21">
         <v>5</v>
@@ -1913,11 +1916,11 @@
       <c r="G28" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="30">
         <v>15</v>
       </c>
-      <c r="I28" s="26" t="s">
-        <v>60</v>
+      <c r="I28" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L28" s="21">
         <v>5</v>
@@ -1941,11 +1944,11 @@
       <c r="G29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H29" s="30">
         <v>10</v>
       </c>
-      <c r="I29" s="26" t="s">
-        <v>60</v>
+      <c r="I29" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L29" s="21">
         <v>5</v>
@@ -1969,11 +1972,11 @@
       <c r="G30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="30">
         <v>17</v>
       </c>
-      <c r="I30" s="26" t="s">
-        <v>60</v>
+      <c r="I30" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L30" s="21">
         <v>5</v>
@@ -1997,11 +2000,11 @@
       <c r="G31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="30">
         <v>16</v>
       </c>
-      <c r="I31" s="26" t="s">
-        <v>60</v>
+      <c r="I31" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L31" s="21">
         <v>6</v>
@@ -2022,14 +2025,14 @@
       <c r="F32" s="4">
         <v>28</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H32" s="33">
         <v>18</v>
       </c>
-      <c r="I32" s="26" t="s">
-        <v>60</v>
+      <c r="I32" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L32" s="21">
         <v>6</v>
@@ -2050,14 +2053,14 @@
       <c r="F33" s="4">
         <v>29</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="33">
         <v>10</v>
       </c>
-      <c r="I33" s="26" t="s">
-        <v>60</v>
+      <c r="I33" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L33" s="21">
         <v>6</v>
@@ -2081,11 +2084,11 @@
       <c r="G34" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="30">
         <v>7</v>
       </c>
-      <c r="I34" s="26" t="s">
-        <v>60</v>
+      <c r="I34" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="L34" s="21">
         <v>6</v>
@@ -2106,14 +2109,14 @@
       <c r="F35" s="6">
         <v>31</v>
       </c>
-      <c r="G35" s="28" t="s">
+      <c r="G35" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="34">
         <v>3</v>
       </c>
-      <c r="I35" s="29" t="s">
-        <v>60</v>
+      <c r="I35" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="L35" s="21">
         <v>4</v>
@@ -2189,14 +2192,14 @@
         <v>56</v>
       </c>
       <c r="C41" s="12"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="38"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="37"/>
     </row>
     <row r="42" spans="2:14">
       <c r="B42" s="4"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="38"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="37"/>
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="4" t="s">
@@ -2205,154 +2208,154 @@
       <c r="C43" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="38"/>
+      <c r="E43" s="37"/>
     </row>
     <row r="44" spans="2:14">
       <c r="B44" s="4">
         <v>1</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="38"/>
+      <c r="D44" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="37"/>
     </row>
     <row r="45" spans="2:14">
       <c r="B45" s="4">
         <v>2</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="38"/>
+        <v>60</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="37"/>
     </row>
     <row r="46" spans="2:14">
       <c r="B46" s="4">
         <v>3</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="38"/>
+        <v>61</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="37"/>
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="21">
         <v>4</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="38"/>
+        <v>62</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="37"/>
     </row>
     <row r="48" spans="2:14">
       <c r="B48" s="21">
         <v>5</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="38"/>
+        <v>63</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="37"/>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="21">
         <v>6</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="38"/>
+        <v>64</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="37"/>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="21">
         <v>7</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="38"/>
+        <v>65</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="37"/>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="21">
         <v>8</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="38"/>
+        <v>66</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="37"/>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="21">
         <v>9</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" s="38"/>
+        <v>67</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="37"/>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="21">
         <v>10</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="38"/>
+        <v>68</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="37"/>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="21">
         <v>11</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="38"/>
+        <v>69</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="37"/>
     </row>
     <row r="55" spans="2:5" ht="16" thickBot="1">
       <c r="B55" s="15">
         <v>12</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="38"/>
+        <v>70</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="37"/>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="11"/>

--- a/Doku/Stammdaten_Datenbank.xlsx
+++ b/Doku/Stammdaten_Datenbank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
   <si>
     <t>Studiengang</t>
   </si>
   <si>
-    <t>Module</t>
-  </si>
-  <si>
     <t>IT-Basistechnologien</t>
   </si>
   <si>
@@ -118,15 +115,9 @@
     <t>Wirtschsftsprivatrecht</t>
   </si>
   <si>
-    <t>Studiengangmodule</t>
-  </si>
-  <si>
     <t>Bezeichnung</t>
   </si>
   <si>
-    <t>Dozent</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -190,9 +181,6 @@
     <t>Zuordnungstabellen</t>
   </si>
   <si>
-    <t>Raum</t>
-  </si>
-  <si>
     <t>R_ID</t>
   </si>
   <si>
@@ -266,6 +254,21 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>sp_modul</t>
+  </si>
+  <si>
+    <t>sp_modul_studiengang</t>
+  </si>
+  <si>
+    <t>sp_dozent</t>
+  </si>
+  <si>
+    <t>sp_studiengang</t>
+  </si>
+  <si>
+    <t>sp_raum</t>
   </si>
 </sst>
 </file>
@@ -1242,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1256,32 +1259,34 @@
     <col min="8" max="8" width="8.33203125" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="5" style="19" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="45" customFormat="1">
       <c r="A1" s="45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J1" s="46"/>
       <c r="K1" s="45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16" thickBot="1"/>
     <row r="3" spans="1:14" ht="19" thickTop="1">
       <c r="B3" s="9" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="16"/>
       <c r="F3" s="2" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="32"/>
       <c r="I3" s="23"/>
       <c r="L3" s="2" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="M3" s="3"/>
     </row>
@@ -1290,23 +1295,23 @@
       <c r="C4" s="8"/>
       <c r="D4" s="16"/>
       <c r="F4" s="38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I4" s="43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>0</v>
@@ -1316,19 +1321,19 @@
         <v>1</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L5" s="44" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N5" s="16"/>
     </row>
@@ -1337,20 +1342,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" s="16"/>
       <c r="F6" s="4">
         <v>2</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="30">
         <v>2</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L6" s="21">
         <v>1</v>
@@ -1365,20 +1370,20 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D7" s="16"/>
       <c r="F7" s="4">
         <v>3</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="30">
         <v>3</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L7" s="21">
         <v>1</v>
@@ -1393,19 +1398,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F8" s="4">
         <v>4</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" s="30">
         <v>4</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L8" s="21">
         <v>1</v>
@@ -1420,19 +1425,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F9" s="4">
         <v>5</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" s="30">
         <v>5</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L9" s="21">
         <v>1</v>
@@ -1447,19 +1452,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F10" s="4">
         <v>6</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="30">
         <v>6</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L10" s="21">
         <v>1</v>
@@ -1474,19 +1479,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F11" s="4">
         <v>7</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="30">
         <v>3</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L11" s="21">
         <v>1</v>
@@ -1503,13 +1508,13 @@
         <v>8</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="30">
         <v>2</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L12" s="21">
         <v>2</v>
@@ -1526,13 +1531,13 @@
         <v>9</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="30">
         <v>9</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L13" s="21">
         <v>2</v>
@@ -1549,13 +1554,13 @@
         <v>10</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="30">
         <v>9</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L14" s="21">
         <v>2</v>
@@ -1570,13 +1575,13 @@
         <v>11</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="30">
         <v>2</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L15" s="21">
         <v>2</v>
@@ -1591,13 +1596,13 @@
         <v>12</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="30">
         <v>3</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L16" s="21">
         <v>2</v>
@@ -1612,13 +1617,13 @@
         <v>13</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="30">
         <v>2</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L17" s="21">
         <v>3</v>
@@ -1630,7 +1635,7 @@
     </row>
     <row r="18" spans="2:14" ht="18">
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="16"/>
@@ -1638,13 +1643,13 @@
         <v>14</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="30">
         <v>10</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L18" s="21">
         <v>3</v>
@@ -1662,13 +1667,13 @@
         <v>15</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="30">
         <v>9</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L19" s="21">
         <v>3</v>
@@ -1680,23 +1685,23 @@
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D20" s="16"/>
       <c r="F20" s="4">
         <v>16</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" s="30">
         <v>11</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L20" s="21">
         <v>3</v>
@@ -1711,20 +1716,20 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D21" s="16"/>
       <c r="F21" s="4">
         <v>17</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" s="30">
         <v>8</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L21" s="21">
         <v>3</v>
@@ -1739,20 +1744,20 @@
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D22" s="16"/>
       <c r="F22" s="4">
         <v>18</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" s="30">
         <v>12</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L22" s="21">
         <v>3</v>
@@ -1767,20 +1772,20 @@
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D23" s="16"/>
       <c r="F23" s="4">
         <v>19</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="30">
         <v>13</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L23" s="21">
         <v>4</v>
@@ -1795,20 +1800,20 @@
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D24" s="16"/>
       <c r="F24" s="4">
         <v>20</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H24" s="30">
         <v>4</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L24" s="21">
         <v>4</v>
@@ -1823,20 +1828,20 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D25" s="16"/>
       <c r="F25" s="4">
         <v>21</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25" s="30">
         <v>1</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L25" s="21">
         <v>4</v>
@@ -1851,20 +1856,20 @@
         <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D26" s="16"/>
       <c r="F26" s="4">
         <v>22</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H26" s="30">
         <v>8</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L26" s="21">
         <v>4</v>
@@ -1879,20 +1884,20 @@
         <v>7</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D27" s="16"/>
       <c r="F27" s="4">
         <v>23</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="30">
         <v>14</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L27" s="21">
         <v>5</v>
@@ -1907,20 +1912,20 @@
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D28" s="16"/>
       <c r="F28" s="4">
         <v>24</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H28" s="30">
         <v>15</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L28" s="21">
         <v>5</v>
@@ -1935,20 +1940,20 @@
         <v>9</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D29" s="16"/>
       <c r="F29" s="4">
         <v>25</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H29" s="30">
         <v>10</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L29" s="21">
         <v>5</v>
@@ -1963,20 +1968,20 @@
         <v>10</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D30" s="16"/>
       <c r="F30" s="4">
         <v>26</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30" s="30">
         <v>17</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L30" s="21">
         <v>5</v>
@@ -1991,20 +1996,20 @@
         <v>11</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D31" s="16"/>
       <c r="F31" s="4">
         <v>27</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H31" s="30">
         <v>16</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L31" s="21">
         <v>6</v>
@@ -2019,20 +2024,20 @@
         <v>12</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D32" s="16"/>
       <c r="F32" s="4">
         <v>28</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H32" s="33">
         <v>18</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L32" s="21">
         <v>6</v>
@@ -2047,20 +2052,20 @@
         <v>13</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D33" s="16"/>
       <c r="F33" s="4">
         <v>29</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H33" s="33">
         <v>10</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L33" s="21">
         <v>6</v>
@@ -2075,20 +2080,20 @@
         <v>14</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D34" s="16"/>
       <c r="F34" s="4">
         <v>30</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H34" s="30">
         <v>7</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L34" s="21">
         <v>6</v>
@@ -2103,20 +2108,20 @@
         <v>15</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D35" s="16"/>
       <c r="F35" s="6">
         <v>31</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H35" s="34">
         <v>3</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L35" s="21">
         <v>4</v>
@@ -2131,7 +2136,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D36" s="16"/>
       <c r="L36" s="21">
@@ -2147,7 +2152,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D37" s="16"/>
       <c r="L37" s="21">
@@ -2163,7 +2168,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D38" s="11"/>
       <c r="L38" s="21">
@@ -2189,7 +2194,7 @@
     </row>
     <row r="41" spans="2:14" ht="18">
       <c r="B41" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="29"/>
@@ -2203,13 +2208,13 @@
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E43" s="37"/>
     </row>
@@ -2218,10 +2223,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E44" s="37"/>
     </row>
@@ -2230,10 +2235,10 @@
         <v>2</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E45" s="37"/>
     </row>
@@ -2242,10 +2247,10 @@
         <v>3</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E46" s="37"/>
     </row>
@@ -2254,10 +2259,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E47" s="37"/>
     </row>
@@ -2266,10 +2271,10 @@
         <v>5</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E48" s="37"/>
     </row>
@@ -2278,10 +2283,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E49" s="37"/>
     </row>
@@ -2290,10 +2295,10 @@
         <v>7</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E50" s="37"/>
     </row>
@@ -2302,10 +2307,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E51" s="37"/>
     </row>
@@ -2314,10 +2319,10 @@
         <v>9</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E52" s="37"/>
     </row>
@@ -2326,10 +2331,10 @@
         <v>10</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E53" s="37"/>
     </row>
@@ -2338,10 +2343,10 @@
         <v>11</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E54" s="37"/>
     </row>
@@ -2350,10 +2355,10 @@
         <v>12</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E55" s="37"/>
     </row>

--- a/Doku/Stammdaten_Datenbank.xlsx
+++ b/Doku/Stammdaten_Datenbank.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="12795" yWindow="0" windowWidth="12795" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
   <si>
     <t>Studiengang</t>
   </si>
@@ -229,9 +229,6 @@
     <t>mnr</t>
   </si>
   <si>
-    <t>snr</t>
-  </si>
-  <si>
     <t>BIM1</t>
   </si>
   <si>
@@ -269,6 +266,24 @@
   </si>
   <si>
     <t>sp_raum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Wahlpflichtmodul 3 BABM</t>
+  </si>
+  <si>
+    <t>Wahlpflichtmodul 1  BABM</t>
+  </si>
+  <si>
+    <t>IT-Basistechnologien BABM</t>
+  </si>
+  <si>
+    <t>sgnr</t>
+  </si>
+  <si>
+    <t>Gerth</t>
   </si>
 </sst>
 </file>
@@ -355,7 +370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -708,6 +723,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -788,7 +845,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -836,88 +893,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="77">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1243,27 +1310,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:O5"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="5" style="19" customWidth="1"/>
     <col min="12" max="12" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="45" customFormat="1">
+    <row r="1" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>51</v>
       </c>
@@ -1272,25 +1339,25 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" thickBot="1"/>
-    <row r="3" spans="1:14" ht="19" thickTop="1">
+    <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="16"/>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="32"/>
       <c r="I3" s="23"/>
       <c r="L3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="16"/>
@@ -1309,9 +1376,9 @@
       <c r="L4" s="4"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>0</v>
@@ -1327,22 +1394,22 @@
         <v>1</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L5" s="44" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="M5" s="39" t="s">
         <v>68</v>
       </c>
       <c r="N5" s="16"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="16"/>
       <c r="F6" s="4">
@@ -1352,10 +1419,10 @@
         <v>2</v>
       </c>
       <c r="H6" s="30">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L6" s="21">
         <v>1</v>
@@ -1365,12 +1432,12 @@
       </c>
       <c r="N6" s="16"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="16"/>
       <c r="F7" s="4">
@@ -1380,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="H7" s="30">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L7" s="21">
         <v>1</v>
@@ -1393,12 +1460,12 @@
       </c>
       <c r="N7" s="16"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>3</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="4">
         <v>4</v>
@@ -1410,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L8" s="21">
         <v>1</v>
@@ -1420,12 +1487,12 @@
       </c>
       <c r="N8" s="16"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>4</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="4">
         <v>5</v>
@@ -1437,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L9" s="21">
         <v>1</v>
@@ -1447,12 +1514,12 @@
       </c>
       <c r="N9" s="16"/>
     </row>
-    <row r="10" spans="1:14" ht="18">
+    <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="36">
         <v>5</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="4">
         <v>6</v>
@@ -1464,7 +1531,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L10" s="21">
         <v>1</v>
@@ -1474,12 +1541,12 @@
       </c>
       <c r="N10" s="16"/>
     </row>
-    <row r="11" spans="1:14" ht="16" thickBot="1">
+    <row r="11" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>6</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="4">
         <v>7</v>
@@ -1491,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L11" s="21">
         <v>1</v>
@@ -1501,7 +1568,7 @@
       </c>
       <c r="N11" s="16"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
       <c r="F12" s="4">
@@ -1514,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L12" s="21">
         <v>2</v>
@@ -1524,7 +1591,7 @@
       </c>
       <c r="N12" s="16"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="F13" s="4">
@@ -1537,7 +1604,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L13" s="21">
         <v>2</v>
@@ -1547,7 +1614,7 @@
       </c>
       <c r="N13" s="16"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="F14" s="4">
@@ -1560,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L14" s="21">
         <v>2</v>
@@ -1569,8 +1636,11 @@
         <v>9</v>
       </c>
       <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="P14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F15" s="4">
         <v>11</v>
       </c>
@@ -1581,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L15" s="21">
         <v>2</v>
@@ -1591,7 +1661,7 @@
       </c>
       <c r="N15" s="16"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F16" s="4">
         <v>12</v>
       </c>
@@ -1602,7 +1672,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L16" s="21">
         <v>2</v>
@@ -1612,7 +1682,7 @@
       </c>
       <c r="N16" s="16"/>
     </row>
-    <row r="17" spans="2:14" ht="16" thickBot="1">
+    <row r="17" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F17" s="4">
         <v>13</v>
       </c>
@@ -1623,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L17" s="21">
         <v>3</v>
@@ -1633,9 +1703,9 @@
       </c>
       <c r="N17" s="16"/>
     </row>
-    <row r="18" spans="2:14" ht="18">
+    <row r="18" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="16"/>
@@ -1649,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L18" s="21">
         <v>3</v>
@@ -1659,7 +1729,7 @@
       </c>
       <c r="N18" s="16"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="38"/>
       <c r="C19" s="39"/>
       <c r="D19" s="16"/>
@@ -1673,7 +1743,7 @@
         <v>9</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L19" s="21">
         <v>3</v>
@@ -1683,7 +1753,7 @@
       </c>
       <c r="N19" s="16"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="38" t="s">
         <v>67</v>
       </c>
@@ -1701,7 +1771,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L20" s="21">
         <v>3</v>
@@ -1711,7 +1781,7 @@
       </c>
       <c r="N20" s="16"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>1</v>
       </c>
@@ -1729,7 +1799,7 @@
         <v>8</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L21" s="21">
         <v>3</v>
@@ -1739,7 +1809,7 @@
       </c>
       <c r="N21" s="16"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>2</v>
       </c>
@@ -1757,7 +1827,7 @@
         <v>12</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L22" s="21">
         <v>3</v>
@@ -1767,7 +1837,7 @@
       </c>
       <c r="N22" s="16"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>3</v>
       </c>
@@ -1785,7 +1855,7 @@
         <v>13</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L23" s="21">
         <v>4</v>
@@ -1795,7 +1865,7 @@
       </c>
       <c r="N23" s="16"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>4</v>
       </c>
@@ -1813,7 +1883,7 @@
         <v>4</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L24" s="21">
         <v>4</v>
@@ -1823,7 +1893,7 @@
       </c>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>5</v>
       </c>
@@ -1841,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L25" s="21">
         <v>4</v>
@@ -1851,7 +1921,7 @@
       </c>
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>6</v>
       </c>
@@ -1869,7 +1939,7 @@
         <v>8</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L26" s="21">
         <v>4</v>
@@ -1879,7 +1949,7 @@
       </c>
       <c r="N26" s="16"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>7</v>
       </c>
@@ -1897,7 +1967,7 @@
         <v>14</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L27" s="21">
         <v>5</v>
@@ -1907,7 +1977,7 @@
       </c>
       <c r="N27" s="16"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>8</v>
       </c>
@@ -1925,7 +1995,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L28" s="21">
         <v>5</v>
@@ -1935,7 +2005,7 @@
       </c>
       <c r="N28" s="16"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="20">
         <v>9</v>
       </c>
@@ -1953,7 +2023,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L29" s="21">
         <v>5</v>
@@ -1963,7 +2033,7 @@
       </c>
       <c r="N29" s="16"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>10</v>
       </c>
@@ -1981,7 +2051,7 @@
         <v>17</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L30" s="21">
         <v>5</v>
@@ -1991,7 +2061,7 @@
       </c>
       <c r="N30" s="16"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>11</v>
       </c>
@@ -2009,7 +2079,7 @@
         <v>16</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L31" s="21">
         <v>6</v>
@@ -2019,7 +2089,7 @@
       </c>
       <c r="N31" s="16"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>12</v>
       </c>
@@ -2037,7 +2107,7 @@
         <v>18</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L32" s="21">
         <v>6</v>
@@ -2047,7 +2117,7 @@
       </c>
       <c r="N32" s="16"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>13</v>
       </c>
@@ -2065,7 +2135,7 @@
         <v>10</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L33" s="21">
         <v>6</v>
@@ -2075,7 +2145,7 @@
       </c>
       <c r="N33" s="16"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>14</v>
       </c>
@@ -2093,7 +2163,7 @@
         <v>7</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L34" s="21">
         <v>6</v>
@@ -2103,7 +2173,7 @@
       </c>
       <c r="N34" s="16"/>
     </row>
-    <row r="35" spans="2:14" ht="16" thickBot="1">
+    <row r="35" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <v>15</v>
       </c>
@@ -2121,7 +2191,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L35" s="21">
         <v>4</v>
@@ -2131,7 +2201,7 @@
       </c>
       <c r="N35" s="16"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>16</v>
       </c>
@@ -2139,6 +2209,18 @@
         <v>49</v>
       </c>
       <c r="D36" s="16"/>
+      <c r="F36" s="47">
+        <v>32</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="50">
+        <v>9</v>
+      </c>
+      <c r="I36" s="49" t="s">
+        <v>76</v>
+      </c>
       <c r="L36" s="21">
         <v>5</v>
       </c>
@@ -2147,7 +2229,7 @@
       </c>
       <c r="N36" s="16"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>17</v>
       </c>
@@ -2155,15 +2237,27 @@
         <v>50</v>
       </c>
       <c r="D37" s="16"/>
+      <c r="F37" s="47">
+        <v>33</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37">
+        <v>9</v>
+      </c>
+      <c r="I37" s="48" t="s">
+        <v>76</v>
+      </c>
       <c r="L37" s="21">
         <v>5</v>
       </c>
       <c r="M37" s="5">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N37" s="16"/>
     </row>
-    <row r="38" spans="2:14" ht="16" thickBot="1">
+    <row r="38" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="6">
         <v>18</v>
       </c>
@@ -2171,42 +2265,59 @@
         <v>46</v>
       </c>
       <c r="D38" s="11"/>
+      <c r="F38" s="47">
+        <v>34</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" s="48" t="s">
+        <v>75</v>
+      </c>
       <c r="L38" s="21">
         <v>6</v>
       </c>
       <c r="M38" s="5">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N38" s="16"/>
     </row>
-    <row r="39" spans="2:14" ht="16" thickBot="1">
-      <c r="B39" s="16"/>
+    <row r="39" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="47">
+        <v>19</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="L39" s="6">
         <v>4</v>
       </c>
       <c r="M39" s="18">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N39" s="11"/>
     </row>
-    <row r="40" spans="2:14" ht="16" thickBot="1">
+    <row r="40" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="16"/>
     </row>
-    <row r="41" spans="2:14" ht="18">
+    <row r="41" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="29"/>
       <c r="E41" s="37"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="13"/>
       <c r="D42" s="30"/>
       <c r="E42" s="37"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>53</v>
       </c>
@@ -2218,7 +2329,7 @@
       </c>
       <c r="E43" s="37"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>1</v>
       </c>
@@ -2226,11 +2337,11 @@
         <v>55</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="37"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>2</v>
       </c>
@@ -2238,11 +2349,11 @@
         <v>56</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E45" s="37"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <v>3</v>
       </c>
@@ -2250,11 +2361,11 @@
         <v>57</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E46" s="37"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="21">
         <v>4</v>
       </c>
@@ -2262,11 +2373,11 @@
         <v>58</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E47" s="37"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="21">
         <v>5</v>
       </c>
@@ -2274,11 +2385,11 @@
         <v>59</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E48" s="37"/>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="21">
         <v>6</v>
       </c>
@@ -2286,11 +2397,11 @@
         <v>60</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E49" s="37"/>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="21">
         <v>7</v>
       </c>
@@ -2298,11 +2409,11 @@
         <v>61</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E50" s="37"/>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="21">
         <v>8</v>
       </c>
@@ -2310,11 +2421,11 @@
         <v>62</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51" s="37"/>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="21">
         <v>9</v>
       </c>
@@ -2322,11 +2433,11 @@
         <v>63</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E52" s="37"/>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="21">
         <v>10</v>
       </c>
@@ -2334,11 +2445,11 @@
         <v>64</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E53" s="37"/>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="21">
         <v>11</v>
       </c>
@@ -2346,11 +2457,11 @@
         <v>65</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E54" s="37"/>
     </row>
-    <row r="55" spans="2:5" ht="16" thickBot="1">
+    <row r="55" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="15">
         <v>12</v>
       </c>
@@ -2358,77 +2469,77 @@
         <v>66</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E55" s="37"/>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="11"/>
     </row>
-    <row r="62" spans="2:5">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="2:5">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="2:5">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="11"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="11"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="11"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="11"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="11"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="11"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="11"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="11"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="11"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="11"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="11"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="11"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="11"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="11"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="11"/>
     </row>
   </sheetData>
@@ -2450,10 +2561,10 @@
       <selection activeCell="B2" sqref="B2:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
